--- a/Tests/T3 - Graphs/Statistics.xlsx
+++ b/Tests/T3 - Graphs/Statistics.xlsx
@@ -397,11 +397,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-27"/>
-        <c:axId val="1328992"/>
-        <c:axId val="1328448"/>
+        <c:axId val="684026352"/>
+        <c:axId val="684014928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1328992"/>
+        <c:axId val="684026352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -444,7 +444,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1328448"/>
+        <c:crossAx val="684014928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -452,7 +452,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1328448"/>
+        <c:axId val="684014928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -503,7 +503,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1328992"/>
+        <c:crossAx val="684026352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -708,7 +708,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -751,11 +751,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-27"/>
-        <c:axId val="1315936"/>
-        <c:axId val="1318656"/>
+        <c:axId val="684016560"/>
+        <c:axId val="684017104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1315936"/>
+        <c:axId val="684016560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -798,7 +798,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1318656"/>
+        <c:crossAx val="684017104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -806,7 +806,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1318656"/>
+        <c:axId val="684017104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -857,7 +857,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1315936"/>
+        <c:crossAx val="684016560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1058,7 +1058,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -1101,11 +1101,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-27"/>
-        <c:axId val="1323552"/>
-        <c:axId val="1314848"/>
+        <c:axId val="833906336"/>
+        <c:axId val="833909056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1323552"/>
+        <c:axId val="833906336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1148,7 +1148,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1314848"/>
+        <c:crossAx val="833909056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1156,7 +1156,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1314848"/>
+        <c:axId val="833909056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1207,7 +1207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1323552"/>
+        <c:crossAx val="833906336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3270,7 +3270,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3349,10 +3349,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -3675,7 +3675,9 @@
       <c r="A27" s="4">
         <v>9</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
